--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -3772,10 +3772,6 @@
     <t>"SNMP"</t>
   </si>
   <si>
-    <t>10.146.83.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"Administrators"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3893,6 +3889,10 @@
   </si>
   <si>
     <t>3. The request community string used to perform get and set request on managed SNMP devices</t>
+  </si>
+  <si>
+    <t>10.146.88.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4869,7 +4869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5100,7 +5102,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5119,7 +5121,7 @@
         <v>831</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>832</v>
@@ -6010,7 +6012,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -6549,10 +6551,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="F61" s="5">
         <v>2</v>
@@ -6572,7 +6574,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="5"/>
@@ -6600,7 +6602,7 @@
         <v>22</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -6625,7 +6627,7 @@
         <v>83</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -6650,7 +6652,7 @@
         <v>401</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -6706,7 +6708,7 @@
         <v>359</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -6852,7 +6854,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I72" s="5" t="b">
         <v>1</v>
@@ -6906,7 +6908,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>800</v>
@@ -6962,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>800</v>
@@ -6993,13 +6995,13 @@
         <v>7</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7024,13 +7026,13 @@
         <v>7</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7055,7 +7057,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -7082,7 +7084,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -7122,7 +7124,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
@@ -7243,7 +7245,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
@@ -7262,10 +7264,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="F88" s="5">
         <v>2</v>
@@ -7285,7 +7287,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
@@ -7358,7 +7360,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>518</v>
@@ -7376,7 +7378,7 @@
         <v>800</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -7389,7 +7391,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -7408,10 +7410,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F94" s="5">
         <v>2</v>
@@ -7481,10 +7483,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>838</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>839</v>
       </c>
       <c r="F97" s="5">
         <v>2</v>
@@ -7504,7 +7506,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="5"/>
@@ -7585,7 +7587,7 @@
         <v>824</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>822</v>
@@ -7609,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7630,7 +7632,7 @@
         <v>19</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>6</v>
@@ -7657,7 +7659,7 @@
         <v>22</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -7672,7 +7674,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7925,10 +7927,10 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F116" s="5">
         <v>2</v>
@@ -7956,7 +7958,7 @@
         <v>22</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -7981,7 +7983,7 @@
         <v>83</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -8006,7 +8008,7 @@
         <v>401</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -8062,7 +8064,7 @@
         <v>358</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -8208,7 +8210,7 @@
         <v>7</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I126" s="5" t="b">
         <v>1</v>
@@ -8237,7 +8239,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>800</v>
@@ -8293,7 +8295,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>800</v>
@@ -8349,13 +8351,13 @@
         <v>7</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -8380,13 +8382,13 @@
         <v>7</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
@@ -8411,7 +8413,7 @@
         <v>4</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -8438,7 +8440,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -8526,10 +8528,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>861</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>578</v>
@@ -8538,7 +8540,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -8552,10 +8554,10 @@
         <v>138</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>861</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>184</v>
@@ -8576,7 +8578,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>585</v>
@@ -8600,10 +8602,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>860</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>861</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>99</v>
@@ -30538,22 +30540,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -3760,9 +3760,6 @@
     <t>SingleManual</t>
   </si>
   <si>
-    <t>"ABC GXT UPS"</t>
-  </si>
-  <si>
     <t>"Description for GXT"</t>
   </si>
   <si>
@@ -3891,8 +3888,10 @@
     <t>3. The request community string used to perform get and set request on managed SNMP devices</t>
   </si>
   <si>
-    <t>10.146.88.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0$</t>
   </si>
 </sst>
 </file>
@@ -4869,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="G115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5102,7 +5101,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5121,19 +5120,19 @@
         <v>831</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="2"/>
@@ -6012,7 +6011,7 @@
         <v>56</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="I40" s="11"/>
       <c r="J40" s="5"/>
@@ -6212,7 +6211,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6551,10 +6550,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="F61" s="5">
         <v>2</v>
@@ -6574,7 +6573,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E62" s="11"/>
       <c r="F62" s="5"/>
@@ -6602,7 +6601,7 @@
         <v>22</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -6627,7 +6626,7 @@
         <v>83</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -6652,7 +6651,7 @@
         <v>401</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -6708,7 +6707,7 @@
         <v>359</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -6854,7 +6853,7 @@
         <v>7</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I72" s="5" t="b">
         <v>1</v>
@@ -6908,7 +6907,7 @@
         <v>7</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I74" s="5" t="s">
         <v>800</v>
@@ -6964,7 +6963,7 @@
         <v>7</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>800</v>
@@ -6995,13 +6994,13 @@
         <v>7</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I77" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -7026,13 +7025,13 @@
         <v>7</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I78" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -7057,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -7084,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
@@ -7124,7 +7123,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="5"/>
@@ -7205,7 +7204,7 @@
         <v>56</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>832</v>
+        <v>867</v>
       </c>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
@@ -7245,7 +7244,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E87" s="11"/>
       <c r="F87" s="5"/>
@@ -7264,10 +7263,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="F88" s="5">
         <v>2</v>
@@ -7287,7 +7286,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E89" s="11"/>
       <c r="F89" s="5"/>
@@ -7360,7 +7359,7 @@
         <v>91</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>518</v>
@@ -7378,7 +7377,7 @@
         <v>800</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -7391,7 +7390,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -7410,10 +7409,10 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F94" s="5">
         <v>2</v>
@@ -7483,10 +7482,10 @@
         <v>96</v>
       </c>
       <c r="D97" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E97" s="11" t="s">
         <v>837</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>838</v>
       </c>
       <c r="F97" s="5">
         <v>2</v>
@@ -7506,7 +7505,7 @@
         <v>97</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="5"/>
@@ -7587,7 +7586,7 @@
         <v>824</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>822</v>
@@ -7611,7 +7610,7 @@
         <v>22</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7632,7 +7631,7 @@
         <v>19</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>6</v>
@@ -7659,7 +7658,7 @@
         <v>22</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -7674,7 +7673,7 @@
         <v>104</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -7927,10 +7926,10 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F116" s="5">
         <v>2</v>
@@ -7958,7 +7957,7 @@
         <v>22</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -7983,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -8008,7 +8007,7 @@
         <v>401</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -8064,7 +8063,7 @@
         <v>358</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -8210,7 +8209,7 @@
         <v>7</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I126" s="5" t="b">
         <v>1</v>
@@ -8239,7 +8238,7 @@
         <v>7</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I127" s="5" t="s">
         <v>800</v>
@@ -8295,7 +8294,7 @@
         <v>7</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>800</v>
@@ -8351,13 +8350,13 @@
         <v>7</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I131" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -8382,13 +8381,13 @@
         <v>7</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I132" s="5" t="s">
         <v>800</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
@@ -8413,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -8440,7 +8439,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -8528,10 +8527,10 @@
         <v>137</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>578</v>
@@ -8540,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -8554,10 +8553,10 @@
         <v>138</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="F139" s="5" t="s">
         <v>184</v>
@@ -8578,7 +8577,7 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>585</v>
@@ -8602,10 +8601,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="E141" s="11" t="s">
         <v>859</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>860</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>99</v>
@@ -30540,22 +30539,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7759" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="868">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3825,10 +3825,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Use global port (65534)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Snmp tab should be reflected. Global values.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3892,6 +3888,10 @@
   </si>
   <si>
     <t>$GXT_0$</t>
+  </si>
+  <si>
+    <t>Use global port (4999)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4113,7 +4113,21 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4866,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5076,7 +5090,7 @@
         <v>774</v>
       </c>
       <c r="B7" s="4">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -5101,7 +5115,7 @@
         <v>765</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5120,10 +5134,10 @@
         <v>831</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>832</v>
@@ -6211,7 +6225,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6913,7 +6927,7 @@
         <v>800</v>
       </c>
       <c r="J74" s="5">
-        <v>65535</v>
+        <v>5000</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6969,7 +6983,7 @@
         <v>800</v>
       </c>
       <c r="J76" s="5">
-        <v>65534</v>
+        <v>4999</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -7019,20 +7033,16 @@
         <v>396</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J78" s="5" t="s">
-        <v>844</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -7050,7 +7060,7 @@
         <v>396</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>4</v>
@@ -7077,14 +7087,12 @@
         <v>396</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>845</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
@@ -7093,22 +7101,16 @@
       <c r="N80" s="7"/>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="3:15">
+    <row r="81" spans="3:15" ht="15">
       <c r="C81" s="5">
         <v>80</v>
       </c>
-      <c r="D81" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D81" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
@@ -7118,16 +7120,22 @@
       <c r="N81" s="7"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="3:15" ht="15">
+    <row r="82" spans="3:15">
       <c r="C82" s="5">
         <v>81</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
+      <c r="D82" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -7148,7 +7156,7 @@
         <v>19</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>2</v>
@@ -7169,16 +7177,18 @@
       <c r="D84" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>19</v>
+      <c r="E84" s="11" t="s">
+        <v>794</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H84" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>866</v>
+      </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
@@ -7198,14 +7208,12 @@
         <v>794</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>578</v>
+        <v>174</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="5" t="s">
-        <v>867</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
@@ -7214,22 +7222,16 @@
       <c r="N85" s="7"/>
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="3:15">
+    <row r="86" spans="3:15" ht="15">
       <c r="C86" s="5">
         <v>85</v>
       </c>
-      <c r="D86" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="D86" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="E86" s="11"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7239,15 +7241,19 @@
       <c r="N86" s="7"/>
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="3:15" ht="15">
+    <row r="87" spans="3:15">
       <c r="C87" s="5">
         <v>86</v>
       </c>
-      <c r="D87" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E87" s="11"/>
-      <c r="F87" s="5"/>
+      <c r="D87" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="F87" s="5">
+        <v>2</v>
+      </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -7258,19 +7264,15 @@
       <c r="N87" s="7"/>
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="3:15">
+    <row r="88" spans="3:15" ht="15">
       <c r="C88" s="5">
         <v>87</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F88" s="5">
-        <v>2</v>
-      </c>
+      <c r="D88" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="E88" s="11"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
@@ -7281,17 +7283,23 @@
       <c r="N88" s="7"/>
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="3:15" ht="15">
+    <row r="89" spans="3:15">
       <c r="C89" s="5">
         <v>88</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="D89" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="11"/>
       <c r="I89" s="5"/>
       <c r="J89" s="5"/>
       <c r="K89" s="5"/>
@@ -7311,13 +7319,17 @@
         <v>518</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I90" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -7330,7 +7342,7 @@
         <v>90</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>793</v>
+        <v>856</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>518</v>
@@ -7342,58 +7354,52 @@
         <v>7</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>827</v>
-      </c>
-      <c r="I91" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5"/>
+        <v>813</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>867</v>
+      </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
       <c r="N91" s="7"/>
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="3:15">
+    <row r="92" spans="3:15" ht="15">
       <c r="C92" s="5">
         <v>91</v>
       </c>
-      <c r="D92" s="8" t="s">
-        <v>857</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>518</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J92" s="5" t="s">
+      <c r="D92" s="6" t="s">
         <v>849</v>
       </c>
+      <c r="E92" s="11"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
       <c r="N92" s="7"/>
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="3:15" ht="15">
+    <row r="93" spans="3:15">
       <c r="C93" s="5">
         <v>92</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="5"/>
+      <c r="D93" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="F93" s="5">
+        <v>2</v>
+      </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -7409,15 +7415,17 @@
         <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F94" s="5">
-        <v>2</v>
-      </c>
-      <c r="G94" s="5"/>
+        <v>518</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
@@ -7435,7 +7443,7 @@
         <v>793</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>518</v>
+        <v>794</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>99</v>
@@ -7457,17 +7465,15 @@
         <v>95</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="F96" s="5">
+        <v>2</v>
+      </c>
+      <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
@@ -7477,19 +7483,15 @@
       <c r="N96" s="7"/>
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="3:15">
+    <row r="97" spans="3:15" ht="15">
       <c r="C97" s="5">
         <v>96</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="E97" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F97" s="5">
-        <v>2</v>
-      </c>
+      <c r="D97" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -7497,19 +7499,25 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="7"/>
+      <c r="N97" s="16"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="3:15" ht="15">
+    <row r="98" spans="3:15">
       <c r="C98" s="5">
         <v>97</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="D98" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
@@ -7530,7 +7538,7 @@
         <v>19</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>2</v>
@@ -7542,27 +7550,30 @@
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
       <c r="N99" s="16"/>
-      <c r="O99" s="2"/>
     </row>
     <row r="100" spans="3:15">
       <c r="C100" s="5">
         <v>99</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -7573,24 +7584,20 @@
         <v>100</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>822</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -7607,10 +7614,10 @@
         <v>19</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>22</v>
+        <v>852</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>841</v>
+        <v>6</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -7631,10 +7638,10 @@
         <v>19</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>853</v>
+        <v>22</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>6</v>
+        <v>841</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -7644,22 +7651,16 @@
       <c r="M103" s="5"/>
       <c r="N103" s="16"/>
     </row>
-    <row r="104" spans="3:15">
+    <row r="104" spans="3:15" ht="15">
       <c r="C104" s="5">
         <v>103</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>841</v>
-      </c>
+      <c r="D104" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
@@ -7668,16 +7669,22 @@
       <c r="M104" s="5"/>
       <c r="N104" s="16"/>
     </row>
-    <row r="105" spans="3:15" ht="15">
+    <row r="105" spans="3:15">
       <c r="C105" s="5">
         <v>104</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
+      <c r="D105" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -7685,6 +7692,7 @@
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
       <c r="N105" s="16"/>
+      <c r="O105" s="2"/>
     </row>
     <row r="106" spans="3:15">
       <c r="C106" s="5">
@@ -7697,7 +7705,7 @@
         <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>2</v>
@@ -7709,95 +7717,94 @@
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
       <c r="N106" s="16"/>
-      <c r="O106" s="2"/>
     </row>
     <row r="107" spans="3:15">
       <c r="C107" s="5">
         <v>106</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+        <v>769</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>822</v>
+      </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
       <c r="N107" s="16"/>
     </row>
-    <row r="108" spans="3:15">
+    <row r="108" spans="3:15" ht="15">
       <c r="C108" s="5">
         <v>107</v>
       </c>
-      <c r="D108" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>769</v>
-      </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>822</v>
-      </c>
+      <c r="D108" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="16"/>
+      <c r="N108" s="7"/>
     </row>
     <row r="109" spans="3:15" ht="15">
       <c r="C109" s="5">
         <v>108</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
       <c r="N109" s="7"/>
     </row>
-    <row r="110" spans="3:15" ht="15">
+    <row r="110" spans="3:15">
       <c r="C110" s="5">
         <v>109</v>
       </c>
-      <c r="D110" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="D110" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
-      <c r="N110" s="7"/>
+      <c r="N110" s="16"/>
     </row>
     <row r="111" spans="3:15">
       <c r="C111" s="5">
@@ -7810,7 +7817,7 @@
         <v>19</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>2</v>
@@ -7830,16 +7837,18 @@
       <c r="D112" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>19</v>
+      <c r="E112" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H112" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>824</v>
+      </c>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
@@ -7858,14 +7867,12 @@
         <v>241</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>824</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
@@ -7878,19 +7885,19 @@
         <v>113</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>241</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>245</v>
+        <v>99</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H114" s="11"/>
-      <c r="I114" s="5"/>
+      <c r="I114" s="11"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -7902,17 +7909,15 @@
         <v>114</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>818</v>
+        <v>839</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="F115" s="5">
+        <v>2</v>
+      </c>
+      <c r="G115" s="5"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="5"/>
@@ -7926,22 +7931,25 @@
         <v>115</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>839</v>
+        <v>793</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>837</v>
-      </c>
-      <c r="F116" s="5">
-        <v>2</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
-      <c r="N116" s="16"/>
+      <c r="N116" s="7"/>
+      <c r="O116" s="2"/>
     </row>
     <row r="117" spans="3:15">
       <c r="C117" s="5">
@@ -7954,7 +7962,7 @@
         <v>19</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>840</v>
@@ -7976,10 +7984,10 @@
         <v>793</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>19</v>
+        <v>396</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>840</v>
@@ -8004,14 +8012,20 @@
         <v>396</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J119" s="5">
+        <v>1500</v>
+      </c>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
@@ -8029,20 +8043,14 @@
         <v>396</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H120" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J120" s="5">
-        <v>1500</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -8060,14 +8068,20 @@
         <v>396</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J121" s="5">
+        <v>1000</v>
+      </c>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8085,7 +8099,7 @@
         <v>396</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>7</v>
@@ -8097,7 +8111,7 @@
         <v>800</v>
       </c>
       <c r="J122" s="5">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -8116,20 +8130,14 @@
         <v>396</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J123" s="5">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -8147,14 +8155,20 @@
         <v>396</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="I124" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J124" s="5">
+        <v>2</v>
+      </c>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -8172,20 +8186,18 @@
         <v>396</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J125" s="5">
-        <v>2</v>
-      </c>
+        <v>842</v>
+      </c>
+      <c r="I125" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -8203,18 +8215,20 @@
         <v>396</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="I126" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>843</v>
+      </c>
+      <c r="I126" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J126" s="5">
+        <v>4999</v>
+      </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8232,20 +8246,14 @@
         <v>396</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J127" s="5">
-        <v>65534</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -8263,14 +8271,20 @@
         <v>396</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I128" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J128" s="5">
+        <v>5000</v>
+      </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -8288,20 +8302,14 @@
         <v>396</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J129" s="5">
-        <v>65535</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -8319,14 +8327,20 @@
         <v>396</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="I130" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>854</v>
+      </c>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -8344,7 +8358,7 @@
         <v>396</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>7</v>
@@ -8356,7 +8370,7 @@
         <v>800</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -8375,20 +8389,16 @@
         <v>396</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>382</v>
+        <v>470</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>843</v>
-      </c>
-      <c r="I132" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="J132" s="5" t="s">
         <v>855</v>
       </c>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -8406,13 +8416,13 @@
         <v>396</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -8433,14 +8443,12 @@
         <v>396</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>382</v>
+        <v>17</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H134" s="5" t="s">
-        <v>856</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
@@ -8454,25 +8462,24 @@
         <v>134</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>396</v>
+        <v>19</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H135" s="5"/>
+      <c r="H135" s="11"/>
       <c r="I135" s="5"/>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="2"/>
+      <c r="N135" s="16"/>
     </row>
     <row r="136" spans="3:15">
       <c r="C136" s="5">
@@ -8485,13 +8492,13 @@
         <v>19</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H136" s="11"/>
-      <c r="I136" s="5"/>
+      <c r="I136" s="11"/>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -8503,44 +8510,44 @@
         <v>136</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
       <c r="E137" s="11" t="s">
-        <v>19</v>
+        <v>858</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>78</v>
+        <v>578</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
       <c r="N137" s="16"/>
     </row>
-    <row r="138" spans="3:15">
+    <row r="138" spans="3:15" ht="14.25">
       <c r="C138" s="5">
         <v>137</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E138" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="E138" s="11" t="s">
-        <v>859</v>
-      </c>
       <c r="F138" s="5" t="s">
-        <v>578</v>
+        <v>184</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>860</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H138" s="17"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="5"/>
@@ -8548,23 +8555,23 @@
       <c r="M138" s="5"/>
       <c r="N138" s="16"/>
     </row>
-    <row r="139" spans="3:15" ht="14.25">
+    <row r="139" spans="3:15">
       <c r="C139" s="5">
         <v>138</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E139" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>585</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H139" s="17"/>
+      <c r="H139" s="11"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="5"/>
@@ -8577,52 +8584,28 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>858</v>
       </c>
-      <c r="E140" s="5" t="s">
-        <v>585</v>
-      </c>
       <c r="F140" s="5" t="s">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H140" s="11"/>
-      <c r="I140" s="5"/>
+      <c r="I140" s="11"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
       <c r="N140" s="16"/>
     </row>
-    <row r="141" spans="3:15">
-      <c r="C141" s="5">
-        <v>140</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E141" s="11" t="s">
-        <v>859</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N141">
+  <conditionalFormatting sqref="N2:N140">
     <cfRule type="cellIs" dxfId="5" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8630,7 +8613,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N141">
+  <conditionalFormatting sqref="N135:N140">
     <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8638,7 +8621,7 @@
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N136:N141">
+  <conditionalFormatting sqref="N135:N140">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8647,16 +8630,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D111:D116 D99:D104 D106:D108 D8 D10:D44 D3:D4 D136:D137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D110:D115 D98:D103 D105:D107 D135:D136 D3:D4 D10:D44 D8">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G137 G139:G141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G138:G140 G2:G136">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F140">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E141">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E140">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -30539,22 +30522,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -4113,21 +4113,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -4882,8 +4868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="F100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J128" sqref="J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6927,7 +6913,7 @@
         <v>800</v>
       </c>
       <c r="J74" s="5">
-        <v>5000</v>
+        <v>65535</v>
       </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -6983,7 +6969,7 @@
         <v>800</v>
       </c>
       <c r="J76" s="5">
-        <v>4999</v>
+        <v>65534</v>
       </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -8227,7 +8213,7 @@
         <v>800</v>
       </c>
       <c r="J126" s="5">
-        <v>4999</v>
+        <v>65534</v>
       </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -8283,7 +8269,7 @@
         <v>800</v>
       </c>
       <c r="J128" s="5">
-        <v>5000</v>
+        <v>65535</v>
       </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>

--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7752" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="869">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3868,29 +3868,35 @@
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
   </si>
   <si>
-    <t>Pass</t>
+    <t>Can not handle that:</t>
+  </si>
+  <si>
+    <t>1. Resize up the "SNMP" dialog box and also click on anywhere on the SNMP dialog box.</t>
+  </si>
+  <si>
+    <t>2. Check that the server will able to send get and set request to the managed device</t>
+  </si>
+  <si>
+    <t>3. The request community string used to perform get and set request on managed SNMP devices</t>
+  </si>
+  <si>
+    <t>Use global port (4999)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Can not handle that:</t>
-  </si>
-  <si>
-    <t>1. Resize up the "SNMP" dialog box and also click on anywhere on the SNMP dialog box.</t>
-  </si>
-  <si>
-    <t>2. Check that the server will able to send get and set request to the managed device</t>
-  </si>
-  <si>
-    <t>3. The request community string used to perform get and set request on managed SNMP devices</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0$</t>
-  </si>
-  <si>
-    <t>Use global port (4999)</t>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_0_NAME$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4868,8 +4874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J128" sqref="J128"/>
+    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5051,7 +5057,7 @@
         <v>773</v>
       </c>
       <c r="B6" s="10">
-        <v>41116</v>
+        <v>41450</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -5098,11 +5104,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>860</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5120,10 +5124,10 @@
         <v>831</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>832</v>
@@ -5139,11 +5143,9 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>776</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
@@ -5163,8 +5165,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>776</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5190,10 +5196,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5220,7 +5224,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5249,7 +5253,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5280,7 +5284,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5311,7 +5315,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5342,7 +5346,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5372,10 +5376,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>783</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5405,7 +5409,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5434,11 +5438,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>785</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5468,9 +5470,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>785</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>776</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5499,7 +5503,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5529,6 +5533,10 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15">
+      <c r="A22" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
@@ -5959,10 +5967,12 @@
       <c r="H38" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="I38" s="11" t="b">
+      <c r="I38" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="J38" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
@@ -6065,10 +6075,12 @@
       <c r="H42" s="11" t="s">
         <v>827</v>
       </c>
-      <c r="I42" s="11" t="b">
+      <c r="I42" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="J42" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J42" s="5"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -6211,7 +6223,7 @@
         <v>56</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
@@ -6290,10 +6302,12 @@
       <c r="H51" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="I51" s="5" t="b">
+      <c r="I51" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J51" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -6855,10 +6869,12 @@
       <c r="H72" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="I72" s="5" t="b">
+      <c r="I72" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J72" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J72" s="5"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -7173,7 +7189,7 @@
         <v>56</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
@@ -7313,10 +7329,12 @@
       <c r="H90" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="I90" s="5" t="b">
+      <c r="I90" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J90" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J90" s="5"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -7346,7 +7364,7 @@
         <v>800</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -8180,10 +8198,12 @@
       <c r="H125" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="I125" s="5" t="b">
+      <c r="I125" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="J125" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -30508,22 +30528,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>

--- a/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST939_SNMPSettings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="870">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3897,6 +3897,10 @@
   </si>
   <si>
     <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Configure_devices</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4874,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I125" sqref="I125"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5959,7 +5963,7 @@
         <v>278</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>289</v>
+        <v>869</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -6067,7 +6071,7 @@
         <v>278</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>289</v>
+        <v>869</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>7</v>
@@ -8642,7 +8646,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G138:G140 G2:G136">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F140">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F37 F39:F41 F43:F140">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E140">
